--- a/템플릿/국가철도50억미만.xlsx
+++ b/템플릿/국가철도50억미만.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>구성원3</t>
   </si>
@@ -239,6 +239,10 @@
     <t>공고명/공고번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -390,7 +394,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +437,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="57">
     <border>
@@ -1635,115 +1645,115 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2057,7 +2067,7 @@
   <dimension ref="A1:BB53"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -2103,51 +2113,53 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="180">
+      <c r="D1" s="154">
         <v>2</v>
       </c>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="182"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="156"/>
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="180">
+      <c r="I1" s="154">
         <f>D2</f>
         <v>0</v>
       </c>
-      <c r="J1" s="180"/>
+      <c r="J1" s="154"/>
       <c r="K1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="186" t="s">
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="187"/>
-      <c r="AB1" s="187"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
       <c r="AC1" s="134"/>
-      <c r="AD1" s="189"/>
+      <c r="AD1" s="189" t="s">
+        <v>51</v>
+      </c>
       <c r="AE1" s="189"/>
       <c r="AF1" s="189"/>
       <c r="AG1" s="189"/>
       <c r="AH1" s="189"/>
       <c r="AI1" s="189"/>
       <c r="AJ1" s="189"/>
-      <c r="AK1" s="80"/>
+      <c r="AK1" s="189"/>
       <c r="AL1" s="80"/>
       <c r="AM1" s="80"/>
       <c r="AN1" s="80"/>
@@ -2165,18 +2177,18 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="182"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="156"/>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="184">
+      <c r="I2" s="176">
         <f>I1</f>
         <v>0</v>
       </c>
-      <c r="J2" s="184"/>
+      <c r="J2" s="176"/>
       <c r="K2" s="73" t="s">
         <v>11</v>
       </c>
@@ -2186,19 +2198,19 @@
       <c r="O2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="185"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
       <c r="T2" s="84"/>
-      <c r="U2" s="188" t="s">
+      <c r="U2" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="115"/>
@@ -2209,7 +2221,7 @@
       <c r="AH2" s="190"/>
       <c r="AI2" s="190"/>
       <c r="AJ2" s="190"/>
-      <c r="AK2" s="139"/>
+      <c r="AK2" s="190"/>
       <c r="AL2" s="139"/>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
@@ -2233,60 +2245,60 @@
       <c r="BB2" s="107"/>
     </row>
     <row r="3" spans="1:54" s="12" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="163" t="s">
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="169" t="s">
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="171" t="s">
+      <c r="O3" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="163" t="s">
+      <c r="P3" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="173"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="175"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="163" t="s">
+      <c r="W3" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="165"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="167"/>
       <c r="AC3" s="153"/>
-      <c r="AD3" s="163" t="s">
+      <c r="AD3" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="164"/>
-      <c r="AJ3" s="173"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="166"/>
+      <c r="AH3" s="166"/>
+      <c r="AI3" s="166"/>
+      <c r="AJ3" s="175"/>
       <c r="AK3" s="151" t="s">
         <v>21</v>
       </c>
@@ -2294,49 +2306,49 @@
       <c r="AM3" s="152"/>
       <c r="AN3" s="152"/>
       <c r="AO3" s="79"/>
-      <c r="AP3" s="174" t="s">
+      <c r="AP3" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="AQ3" s="176" t="s">
+      <c r="AQ3" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="AR3" s="178" t="s">
+      <c r="AR3" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="AS3" s="159" t="s">
+      <c r="AS3" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="AT3" s="155" t="s">
+      <c r="AT3" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="AU3" s="157" t="s">
+      <c r="AU3" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="AV3" s="154" t="s">
+      <c r="AV3" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="AW3" s="154" t="s">
+      <c r="AW3" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="AX3" s="154" t="s">
+      <c r="AX3" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AY3" s="154" t="s">
+      <c r="AY3" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AZ3" s="154" t="s">
+      <c r="AZ3" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="BA3" s="154" t="s">
+      <c r="BA3" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="BB3" s="154" t="s">
+      <c r="BB3" s="186" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:54" s="12" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A4" s="162"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="164"/>
+      <c r="B4" s="164"/>
       <c r="C4" s="30" t="s">
         <v>6</v>
       </c>
@@ -2370,8 +2382,8 @@
       <c r="M4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="170"/>
-      <c r="O4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="174"/>
       <c r="P4" s="30" t="s">
         <v>6</v>
       </c>
@@ -2450,19 +2462,19 @@
       <c r="AO4" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="AP4" s="175"/>
-      <c r="AQ4" s="177"/>
-      <c r="AR4" s="179"/>
-      <c r="AS4" s="160"/>
-      <c r="AT4" s="156"/>
-      <c r="AU4" s="158"/>
-      <c r="AV4" s="154"/>
-      <c r="AW4" s="154"/>
-      <c r="AX4" s="154"/>
-      <c r="AY4" s="154"/>
-      <c r="AZ4" s="154"/>
-      <c r="BA4" s="154"/>
-      <c r="BB4" s="154"/>
+      <c r="AP4" s="179"/>
+      <c r="AQ4" s="181"/>
+      <c r="AR4" s="183"/>
+      <c r="AS4" s="185"/>
+      <c r="AT4" s="161"/>
+      <c r="AU4" s="188"/>
+      <c r="AV4" s="186"/>
+      <c r="AW4" s="186"/>
+      <c r="AX4" s="186"/>
+      <c r="AY4" s="186"/>
+      <c r="AZ4" s="186"/>
+      <c r="BA4" s="186"/>
+      <c r="BB4" s="186"/>
     </row>
     <row r="5" spans="1:54" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="A5" s="122"/>
@@ -7420,11 +7432,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:AB1"/>
+    <mergeCell ref="AD1:AK2"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="BA3:BA4"/>
     <mergeCell ref="AT3:AT4"/>
     <mergeCell ref="U2:Z2"/>
     <mergeCell ref="A3:A4"/>
@@ -7435,24 +7455,16 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:U3"/>
     <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="AD1:AJ2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/템플릿/국가철도50억미만.xlsx
+++ b/템플릿/국가철도50억미만.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>구성원3</t>
   </si>
@@ -229,10 +229,6 @@
   </si>
   <si>
     <t>알림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>충남 30%,  5개사</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1645,6 +1641,93 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="16" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1654,6 +1737,12 @@
     <xf numFmtId="41" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1662,99 +1751,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2067,7 +2063,7 @@
   <dimension ref="A1:BB53"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -2078,13 +2074,11 @@
     <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.77734375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="6.44140625" style="1" customWidth="1"/>
-    <col min="16" max="18" width="7.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="7.109375" style="1" customWidth="1"/>
+    <col min="16" max="21" width="8.33203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="8.109375" style="29" hidden="1" customWidth="1"/>
     <col min="23" max="24" width="8" style="1" customWidth="1"/>
     <col min="25" max="26" width="7.44140625" style="1" customWidth="1"/>
@@ -2113,53 +2107,53 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="154">
+      <c r="D1" s="183">
         <v>2</v>
       </c>
-      <c r="E1" s="154"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="156"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="185"/>
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="154">
+      <c r="I1" s="183">
         <f>D2</f>
         <v>0</v>
       </c>
-      <c r="J1" s="154"/>
+      <c r="J1" s="183"/>
       <c r="K1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="158" t="s">
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="189" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="189"/>
-      <c r="AF1" s="189"/>
-      <c r="AG1" s="189"/>
-      <c r="AH1" s="189"/>
-      <c r="AI1" s="189"/>
-      <c r="AJ1" s="189"/>
-      <c r="AK1" s="189"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="154"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="154"/>
+      <c r="AJ1" s="154"/>
+      <c r="AK1" s="154"/>
       <c r="AL1" s="80"/>
       <c r="AM1" s="80"/>
       <c r="AN1" s="80"/>
@@ -2177,18 +2171,18 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="156"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="176">
+      <c r="I2" s="186">
         <f>I1</f>
         <v>0</v>
       </c>
-      <c r="J2" s="176"/>
+      <c r="J2" s="186"/>
       <c r="K2" s="73" t="s">
         <v>11</v>
       </c>
@@ -2198,30 +2192,28 @@
       <c r="O2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
       <c r="T2" s="84"/>
-      <c r="U2" s="162" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="115"/>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="190"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="190"/>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="190"/>
-      <c r="AJ2" s="190"/>
-      <c r="AK2" s="190"/>
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="155"/>
+      <c r="AK2" s="155"/>
       <c r="AL2" s="139"/>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
@@ -2245,60 +2237,60 @@
       <c r="BB2" s="107"/>
     </row>
     <row r="3" spans="1:54" s="12" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="165" t="s">
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="171" t="s">
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="173" t="s">
+      <c r="O3" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="165" t="s">
+      <c r="P3" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="175"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="182"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="165" t="s">
+      <c r="W3" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="167"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="174"/>
       <c r="AC3" s="153"/>
-      <c r="AD3" s="165" t="s">
+      <c r="AD3" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="166"/>
-      <c r="AG3" s="166"/>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="166"/>
-      <c r="AJ3" s="175"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="173"/>
+      <c r="AJ3" s="182"/>
       <c r="AK3" s="151" t="s">
         <v>21</v>
       </c>
@@ -2306,49 +2298,49 @@
       <c r="AM3" s="152"/>
       <c r="AN3" s="152"/>
       <c r="AO3" s="79"/>
-      <c r="AP3" s="178" t="s">
+      <c r="AP3" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="AQ3" s="180" t="s">
+      <c r="AQ3" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="AR3" s="182" t="s">
+      <c r="AR3" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="AS3" s="184" t="s">
+      <c r="AS3" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="AT3" s="160" t="s">
+      <c r="AT3" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="AU3" s="187" t="s">
+      <c r="AU3" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="AV3" s="186" t="s">
+      <c r="AV3" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="AW3" s="186" t="s">
+      <c r="AW3" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="AX3" s="186" t="s">
+      <c r="AX3" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="AY3" s="186" t="s">
+      <c r="AY3" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="AZ3" s="186" t="s">
+      <c r="AZ3" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="BA3" s="186" t="s">
+      <c r="BA3" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="BB3" s="186" t="s">
+      <c r="BB3" s="156" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:54" s="12" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A4" s="164"/>
-      <c r="B4" s="164"/>
+      <c r="A4" s="171"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="30" t="s">
         <v>6</v>
       </c>
@@ -2382,8 +2374,8 @@
       <c r="M4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="172"/>
-      <c r="O4" s="174"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="181"/>
       <c r="P4" s="30" t="s">
         <v>6</v>
       </c>
@@ -2462,19 +2454,19 @@
       <c r="AO4" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="AP4" s="179"/>
-      <c r="AQ4" s="181"/>
-      <c r="AR4" s="183"/>
-      <c r="AS4" s="185"/>
-      <c r="AT4" s="161"/>
-      <c r="AU4" s="188"/>
-      <c r="AV4" s="186"/>
-      <c r="AW4" s="186"/>
-      <c r="AX4" s="186"/>
-      <c r="AY4" s="186"/>
-      <c r="AZ4" s="186"/>
-      <c r="BA4" s="186"/>
-      <c r="BB4" s="186"/>
+      <c r="AP4" s="160"/>
+      <c r="AQ4" s="162"/>
+      <c r="AR4" s="164"/>
+      <c r="AS4" s="166"/>
+      <c r="AT4" s="168"/>
+      <c r="AU4" s="158"/>
+      <c r="AV4" s="156"/>
+      <c r="AW4" s="156"/>
+      <c r="AX4" s="156"/>
+      <c r="AY4" s="156"/>
+      <c r="AZ4" s="156"/>
+      <c r="BA4" s="156"/>
+      <c r="BB4" s="156"/>
     </row>
     <row r="5" spans="1:54" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="A5" s="122"/>
@@ -7432,6 +7424,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:AB1"/>
+    <mergeCell ref="U2:Z2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="P2:S2"/>
     <mergeCell ref="AD1:AK2"/>
     <mergeCell ref="BB3:BB4"/>
     <mergeCell ref="AU3:AU4"/>
@@ -7446,25 +7456,7 @@
     <mergeCell ref="AS3:AS4"/>
     <mergeCell ref="BA3:BA4"/>
     <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="U2:Z2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="P2:S2"/>
     <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
